--- a/templates/template_ods_ifrs.xlsx
+++ b/templates/template_ods_ifrs.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
     <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Export Worksheet'!$A$5:$M$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Export Worksheet'!$A$5:$N$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -28,7 +28,7 @@
     <author>Bruce Higiro Munyandamutsa</author>
   </authors>
   <commentList>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -321,7 +321,6 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,72 +629,75 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.88671875" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="F4" s="8">
-        <f>SUM(F6:F20000)</f>
+      <c r="G4" s="8">
+        <f>SUM(G6:G20000)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" ref="G4:H4" si="0">SUM(G6:G20000)</f>
+      <c r="H4" s="8">
+        <f t="shared" ref="H4:I4" si="0">SUM(H6:H20000)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8">
-        <f t="shared" ref="K4:L4" si="1">SUM(L6:L20000)</f>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8">
+        <f t="shared" ref="M4" si="1">SUM(M6:M20000)</f>
         <v>0</v>
       </c>
     </row>
@@ -704,67 +706,67 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="M5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="str">
+      <c r="J6" s="6" t="str">
         <f>IFERROR(DATE(RIGHT(Q6,4),MID(Q6,4,2),LEFT(Q6,2)),"")</f>
         <v/>
       </c>
-      <c r="J6" s="6" t="str">
+      <c r="K6" s="6" t="str">
         <f>IFERROR(DATE(RIGHT(R6,4),MID(R6,4,2),LEFT(R6,2)),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A1:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:D5 D7:D1048576">
+  <conditionalFormatting sqref="E4:E5 E7:E1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="E6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/template_ods_ifrs.xlsx
+++ b/templates/template_ods_ifrs.xlsx
@@ -304,10 +304,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -317,13 +316,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -629,29 +628,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="4.109375" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="10.44140625" style="1" hidden="1" customWidth="1"/>
@@ -660,101 +659,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>SUM(G6:G20000)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:I4" si="0">SUM(H6:H20000)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7">
         <f t="shared" ref="M4" si="1">SUM(M6:M20000)</f>
         <v>0</v>
       </c>
+      <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J6" s="6" t="str">
+      <c r="J6" s="5" t="str">
         <f>IFERROR(DATE(RIGHT(Q6,4),MID(Q6,4,2),LEFT(Q6,2)),"")</f>
         <v/>
       </c>
-      <c r="K6" s="6" t="str">
+      <c r="K6" s="5" t="str">
         <f>IFERROR(DATE(RIGHT(R6,4),MID(R6,4,2),LEFT(R6,2)),"")</f>
         <v/>
       </c>
@@ -786,7 +786,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
